--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori5/67/word_level_predictions_67.xlsx
@@ -3362,52 +3362,52 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>35</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>2</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>22</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>2</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>23</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori5/67/word_level_predictions_67.xlsx
@@ -3362,52 +3362,52 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4714,210 +4714,210 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
